--- a/guide/sdr-causeOfDeath-CauseOfDeathCondition.xlsx
+++ b/guide/sdr-causeOfDeath-CauseOfDeathCondition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="290">
   <si>
     <t>Path</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the condition as not currently valid or of concern.</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="active"/&gt;</t>
   </si>
   <si>
     <t>required</t>
@@ -2432,7 +2435,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>41</v>
@@ -2450,13 +2453,13 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
@@ -2479,22 +2482,22 @@
       </c>
       <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2528,17 +2531,17 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -2560,13 +2563,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2589,30 +2592,30 @@
       </c>
       <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2635,16 +2638,16 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2670,13 +2673,13 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -2705,16 +2708,16 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2745,16 +2748,16 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2780,13 +2783,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2815,28 +2818,28 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2855,17 +2858,17 @@
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2890,13 +2893,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -2925,24 +2928,24 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2965,16 +2968,16 @@
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3000,13 +3003,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3035,28 +3038,28 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3075,17 +3078,17 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3148,13 +3151,13 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3162,11 +3165,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3185,16 +3188,16 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3258,13 +3261,13 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3272,7 +3275,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3295,16 +3298,16 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3368,13 +3371,13 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3382,7 +3385,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3405,16 +3408,16 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3469,7 +3472,7 @@
       </c>
       <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -3481,10 +3484,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3492,7 +3495,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3515,16 +3518,16 @@
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3588,13 +3591,13 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3602,7 +3605,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3625,13 +3628,13 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3696,13 +3699,13 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -3710,7 +3713,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3733,13 +3736,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3798,7 +3801,7 @@
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
@@ -3807,7 +3810,7 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3841,13 +3844,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3898,7 +3901,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3919,7 +3922,7 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3959,7 +3962,7 @@
         <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>101</v>
@@ -4012,7 +4015,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4033,7 +4036,7 @@
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4044,11 +4047,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4073,7 +4076,7 @@
         <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>101</v>
@@ -4126,7 +4129,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4158,7 +4161,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4181,13 +4184,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4214,13 +4217,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4243,19 +4246,19 @@
       </c>
       <c r="AG28" s="2"/>
       <c r="AH28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4266,7 +4269,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4289,13 +4292,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4351,7 +4354,7 @@
       </c>
       <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
@@ -4363,7 +4366,7 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4374,7 +4377,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4397,16 +4400,16 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4464,7 +4467,7 @@
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
@@ -4473,7 +4476,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4484,7 +4487,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4507,13 +4510,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4564,7 +4567,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4585,7 +4588,7 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4596,7 +4599,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4625,7 +4628,7 @@
         <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>101</v>
@@ -4678,7 +4681,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4699,7 +4702,7 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -4710,11 +4713,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4739,7 +4742,7 @@
         <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>101</v>
@@ -4792,7 +4795,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4824,7 +4827,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4847,13 +4850,13 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4880,13 +4883,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -4909,22 +4912,22 @@
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -4932,7 +4935,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4955,13 +4958,13 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5017,7 +5020,7 @@
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
@@ -5029,10 +5032,10 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5063,13 +5066,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5134,10 +5137,10 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>

--- a/guide/sdr-causeOfDeath-CauseOfDeathCondition.xlsx
+++ b/guide/sdr-causeOfDeath-CauseOfDeathCondition.xlsx
@@ -665,7 +665,7 @@
   </si>
   <si>
     <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+Period {[]} {[]}string {[]} {[]}</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
